--- a/biology/Neurosciences/Claire_Wyart/Claire_Wyart.xlsx
+++ b/biology/Neurosciences/Claire_Wyart/Claire_Wyart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claire Wyart, née le 16 février 1977, est une biophysicienne et neurobiologiste française[1]. Elle est chevalière de l'ordre national du Mérite depuis 2014[2].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire Wyart, née le 16 février 1977, est une biophysicienne et neurobiologiste française. Elle est chevalière de l'ordre national du Mérite depuis 2014.  
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1996 à 2000, elle est élève de l'École normale supérieure de Paris. Elle prépare ensuite un doctorat en biophysique entre 2000 et 2003 à l'université Louis-Pasteur de Strasbourg. Entre 2005 et 2010, durant ses recherches postdoctorales à l'université de Californie à Berkeley, elle travaille sur l'optogénétique in vivo chez la larve de poisson zèbre pour sonder les circuits sous-jacents du comportement dans les modèles expérimentaux[3]. Elle dirige l'équipe dissection optogénétique des circuits spinaux sous-tendant la locomotion à l’Institut du Cerveau et de la Moelle épinière depuis 2011[4]. Elle effectue ses recherches sur les circuits moteurs, le comportement, l'optogénétique, la physiologie, la locomotion, et les intégrations sensorimotrices[5]. 
-Claire Wyart est membre du comité éditorial de la revue Current Biology[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1996 à 2000, elle est élève de l'École normale supérieure de Paris. Elle prépare ensuite un doctorat en biophysique entre 2000 et 2003 à l'université Louis-Pasteur de Strasbourg. Entre 2005 et 2010, durant ses recherches postdoctorales à l'université de Californie à Berkeley, elle travaille sur l'optogénétique in vivo chez la larve de poisson zèbre pour sonder les circuits sous-jacents du comportement dans les modèles expérimentaux. Elle dirige l'équipe dissection optogénétique des circuits spinaux sous-tendant la locomotion à l’Institut du Cerveau et de la Moelle épinière depuis 2011. Elle effectue ses recherches sur les circuits moteurs, le comportement, l'optogénétique, la physiologie, la locomotion, et les intégrations sensorimotrices. 
+Claire Wyart est membre du comité éditorial de la revue Current Biology.
 Elle est la fille de la physicienne Françoise Brochard-Wyart et de Pierre-Gilles de Gennes, prix Nobel de physique en 1991.
 </t>
         </is>
@@ -544,15 +558,17 @@
           <t>Honneurs et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2022 : prix Richard Lounsbery de l'Académie des Sciences française et l'Académie nationale des Sciences américaine « pour ses travaux remarquables sur l’interface sensorielle entre le système nerveux et le liquide cérébrospinal (CSF), qui contrôle notre posture et nos mouvements »[7]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2022 : prix Richard Lounsbery de l'Académie des Sciences française et l'Académie nationale des Sciences américaine « pour ses travaux remarquables sur l’interface sensorielle entre le système nerveux et le liquide cérébrospinal (CSF), qui contrôle notre posture et nos mouvements »
 2016 :
 Prix EMBO-Young Investigator Award par l'Organisation européenne de biologie moléculaire
 New York Stem Cell Foundation Robertson Neuroscience Innovator Award
 Prix de la Fondation Schlumberger pour l'éducation et la recherche
-2014 :  Chevalière de l'ordre national du Mérite [2]
-2013 : prix Irène-Joliot-Curie de la jeune femme scientifique en 2013 pour ses recherches innovantes dans le domaine du contrôle de la motricité[8].
+2014 :  Chevalière de l'ordre national du Mérite 
+2013 : prix Irène-Joliot-Curie de la jeune femme scientifique en 2013 pour ses recherches innovantes dans le domaine du contrôle de la motricité.
 2011 : prix Émergences de la Mairie de Paris
 2010 : prix du programme Atip-Avenir la Fondation Bettencourt-Schueller</t>
         </is>
@@ -582,7 +598,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Szobota, Stephanie, et al. « Remote control of neuronal activity with a light-gated glutamate receptor. » Neuron 54.4 (2007): 535-545.
 (en) Wyart, Claire, et al. « Optogenetic dissection of a behavioural module in the vertebrate spinal cord. » Nature 461.7262 (2009): 407-410.
